--- a/VLOOKUP&FlashFill.xlsx
+++ b/VLOOKUP&FlashFill.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\robin\workspace\Excel Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8421FB4-BDE2-458D-BAA5-E9483ED53B51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14E6697E-2902-4E17-B339-F72A2BA4818D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{7E2EDBB0-732C-4F4C-9FA1-EB9943D68A70}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{7E2EDBB0-732C-4F4C-9FA1-EB9943D68A70}"/>
   </bookViews>
   <sheets>
     <sheet name="EXERCISE 09" sheetId="1" r:id="rId1"/>
@@ -943,7 +943,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="10" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
@@ -952,24 +952,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="11">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
     <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
@@ -1093,6 +1075,24 @@
           <color theme="1"/>
         </bottom>
       </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2321,18 +2321,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{EC98301D-C92D-4AE0-A3BD-6F7C20FE5B60}" name="Test_Scores" displayName="Test_Scores" ref="A3:I33" totalsRowShown="0" headerRowDxfId="0" tableBorderDxfId="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{EC98301D-C92D-4AE0-A3BD-6F7C20FE5B60}" name="Test_Scores" displayName="Test_Scores" ref="A3:I33" totalsRowShown="0" headerRowDxfId="10" tableBorderDxfId="9">
   <autoFilter ref="A3:I33" xr:uid="{EC98301D-C92D-4AE0-A3BD-6F7C20FE5B60}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{7C99B06E-2EE8-408E-B735-368E5B05C896}" name="STUDENT" dataDxfId="9"/>
-    <tableColumn id="2" xr3:uid="{13AC765E-2A49-448A-9EE3-D9D9CB08F124}" name="PHYSICS" dataDxfId="8"/>
-    <tableColumn id="3" xr3:uid="{0D682FF4-9598-4E72-B43D-2CA76C7F0975}" name="BIOLOGY" dataDxfId="7"/>
-    <tableColumn id="4" xr3:uid="{64DF461D-EF58-4AF6-9C17-09653402D9C9}" name="CHEMISTRY" dataDxfId="6"/>
-    <tableColumn id="5" xr3:uid="{2D0DD540-200F-4B74-A754-405EE6B0271C}" name="HISTORY" dataDxfId="5"/>
-    <tableColumn id="6" xr3:uid="{86B7443C-11AE-49AA-BBAA-3CAEF54F3066}" name="ENGLISH" dataDxfId="4"/>
-    <tableColumn id="7" xr3:uid="{7DEEAF51-2884-4542-A8B9-F7E974B2E756}" name="FRENCH" dataDxfId="3"/>
-    <tableColumn id="8" xr3:uid="{E4D1D43D-0399-40F9-8D27-BB1E52C89320}" name="GEOGRAPHY" dataDxfId="2"/>
-    <tableColumn id="9" xr3:uid="{69B9D27F-5382-4FFB-8845-94487701D23A}" name="SPANISH" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{7C99B06E-2EE8-408E-B735-368E5B05C896}" name="STUDENT" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{13AC765E-2A49-448A-9EE3-D9D9CB08F124}" name="PHYSICS" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{0D682FF4-9598-4E72-B43D-2CA76C7F0975}" name="BIOLOGY" dataDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{64DF461D-EF58-4AF6-9C17-09653402D9C9}" name="CHEMISTRY" dataDxfId="5"/>
+    <tableColumn id="5" xr3:uid="{2D0DD540-200F-4B74-A754-405EE6B0271C}" name="HISTORY" dataDxfId="4"/>
+    <tableColumn id="6" xr3:uid="{86B7443C-11AE-49AA-BBAA-3CAEF54F3066}" name="ENGLISH" dataDxfId="3"/>
+    <tableColumn id="7" xr3:uid="{7DEEAF51-2884-4542-A8B9-F7E974B2E756}" name="FRENCH" dataDxfId="2"/>
+    <tableColumn id="8" xr3:uid="{E4D1D43D-0399-40F9-8D27-BB1E52C89320}" name="GEOGRAPHY" dataDxfId="1"/>
+    <tableColumn id="9" xr3:uid="{69B9D27F-5382-4FFB-8845-94487701D23A}" name="SPANISH" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2721,8 +2721,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53E189B7-8115-4820-98A4-4632D60A5285}">
   <dimension ref="A1:O33"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4435,7 +4435,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A41A1AF-0181-448B-BA56-5F17324B4EFE}">
   <dimension ref="A2:G20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
@@ -4826,6 +4826,27 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="92b31412-8c8f-44f1-a883-141cef3f34cc">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="92e4be8c-5aca-45ec-8e17-deab1f90d7c8" xsi:nil="true"/>
+    <Duration xmlns="92b31412-8c8f-44f1-a883-141cef3f34cc" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100AF5EC4FAED17FD4FA002B715A7CB3129" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="4aa9156728ec40ec10fea053bf01ab89">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="92e4be8c-5aca-45ec-8e17-deab1f90d7c8" xmlns:ns3="92b31412-8c8f-44f1-a883-141cef3f34cc" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="25bd8e2f098c81b399dd4c6c22e90871" ns2:_="" ns3:_="">
     <xsd:import namespace="92e4be8c-5aca-45ec-8e17-deab1f90d7c8"/>
@@ -5076,28 +5097,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="92b31412-8c8f-44f1-a883-141cef3f34cc">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="92e4be8c-5aca-45ec-8e17-deab1f90d7c8" xsi:nil="true"/>
-    <Duration xmlns="92b31412-8c8f-44f1-a883-141cef3f34cc" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7A646138-1266-4D06-9364-A538AD307E34}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ABB6A455-2B2C-4291-9158-381AE3FE1489}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="92b31412-8c8f-44f1-a883-141cef3f34cc"/>
+    <ds:schemaRef ds:uri="92e4be8c-5aca-45ec-8e17-deab1f90d7c8"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1E8932C6-39F8-4FAD-ACEF-90A1D1C64821}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5114,23 +5133,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ABB6A455-2B2C-4291-9158-381AE3FE1489}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="92b31412-8c8f-44f1-a883-141cef3f34cc"/>
-    <ds:schemaRef ds:uri="92e4be8c-5aca-45ec-8e17-deab1f90d7c8"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7A646138-1266-4D06-9364-A538AD307E34}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>